--- a/By-poll_Data_For_Both.xlsx
+++ b/By-poll_Data_For_Both.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6b038fdb6c877ec/Desktop/InfosysProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{2D3915D5-E906-4F7D-AF25-CB862C077BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BDACED-89E0-4EAB-A874-9CF37C7160D4}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{2D3915D5-E906-4F7D-AF25-CB862C077BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDB7668-587F-418D-A689-A4C13F5997F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{069364E7-DCA0-4ADB-BE94-D5AAAC7F3F1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{069364E7-DCA0-4ADB-BE94-D5AAAC7F3F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Statelevel" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>YEAR</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t xml:space="preserve">	10,16,513</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>M. O. H. Farook</t>
   </si>
 </sst>
 </file>
@@ -381,19 +387,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,12 +398,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,6 +428,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC6CCB7-EC61-4886-BA7B-05FAC596014A}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="84" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -746,1109 +755,1109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1978</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>19576</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>1269</v>
       </c>
       <c r="K2" s="1">
         <v>0.1091</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>11631</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1981</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>14800</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>415</v>
       </c>
       <c r="K3" s="1">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>10011</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>1991</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>12561</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>1348</v>
       </c>
       <c r="K4" s="1">
         <v>0.1036</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>13014</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>1991</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>15531</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>1621</v>
       </c>
       <c r="K5" s="1">
         <v>0.19539999999999999</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>15755</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>1995</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>18146</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>3099</v>
       </c>
       <c r="K6" s="1">
         <v>0.40610000000000002</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>15857</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>36750</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>3261</v>
       </c>
       <c r="K7" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>32596</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>26081</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>1162</v>
       </c>
       <c r="K8" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>21577</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>31525</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>2004</v>
       </c>
       <c r="K9" s="1">
         <v>0.54400000000000004</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>24037</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>28103</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>843</v>
       </c>
       <c r="K10" s="1">
         <v>0.49070000000000003</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>24514</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>28828</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>257</v>
       </c>
       <c r="K11" s="1">
         <v>0.40210000000000001</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>27254</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>32398</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>3078</v>
       </c>
       <c r="K12" s="1">
         <v>0.51049999999999995</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>29567</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>33398</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>1513</v>
       </c>
       <c r="K13" s="1">
         <v>0.52010000000000001</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>29460</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>2020</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>40210</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>12257</v>
       </c>
       <c r="K14" s="1">
         <v>0.73080000000000001</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>36375</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>2020</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>27995</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>31987</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>6719</v>
       </c>
       <c r="K16" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>29481</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>2022</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>26163</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>187</v>
       </c>
       <c r="K17" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>24015</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18">
         <v>1971</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>4850</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>223</v>
       </c>
       <c r="K18" s="1">
         <v>0.52229999999999999</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>3487</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19">
         <v>1971</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>6420</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>352</v>
       </c>
       <c r="K19" s="1">
         <v>0.53910000000000002</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>4494</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20">
         <v>1971</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>23</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>5431</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>454</v>
       </c>
       <c r="K20" s="1">
         <v>0.4108</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>3968</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21">
         <v>1980</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>42</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>8973</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <v>9</v>
       </c>
       <c r="K21" s="1">
         <v>0.50060000000000004</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>6825</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22">
         <v>1984</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="6">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>11234</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1005</v>
       </c>
       <c r="K22" s="1">
         <v>0.55779999999999996</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>8695</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23">
         <v>1987</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>30511</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>8930</v>
       </c>
       <c r="K23" s="1">
         <v>0.72330000000000005</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23">
         <v>19984</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24">
         <v>1994</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>9871</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24">
         <v>575</v>
       </c>
       <c r="K24" s="1">
         <v>0.53879999999999995</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24">
         <v>7405</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25">
         <v>1995</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>45</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>13842</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>8354</v>
       </c>
       <c r="K25" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25">
         <v>12858</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26">
         <v>2011</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>26</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>12806</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>1320</v>
       </c>
       <c r="K26" s="1">
         <v>0.55889999999999995</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26">
         <v>11210</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>11</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>21006</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1859,14 +1868,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8608D78C-F848-4543-B781-1A1207436F4E}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
@@ -1880,167 +1890,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1970</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>272699</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>12516</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>0.46300000000000002</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="8">
         <v>189743</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2001</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>737402</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>111441</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>0.5474</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="8">
         <v>538920</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>2018</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>594205</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1969</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>260000</v>
+      </c>
+      <c r="J5" s="8">
+        <v>27000</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1997</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8">
+        <v>550000</v>
+      </c>
+      <c r="J6" s="8">
+        <v>70000</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8">
+        <v>380000</v>
       </c>
     </row>
   </sheetData>
